--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H2">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>264.4861513750524</v>
+        <v>26.45162103151289</v>
       </c>
       <c r="R2">
-        <v>2380.375362375472</v>
+        <v>238.064589283616</v>
       </c>
       <c r="S2">
-        <v>0.08472831993546066</v>
+        <v>0.01053536400025497</v>
       </c>
       <c r="T2">
-        <v>0.08472831993546065</v>
+        <v>0.01053536400025497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H3">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>391.0873376772926</v>
+        <v>30.60194197233066</v>
       </c>
       <c r="R3">
-        <v>3519.786039095634</v>
+        <v>275.4174777509759</v>
       </c>
       <c r="S3">
-        <v>0.1252850967703058</v>
+        <v>0.01218838714682525</v>
       </c>
       <c r="T3">
-        <v>0.1252850967703058</v>
+        <v>0.01218838714682525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H4">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>218.5471303881078</v>
+        <v>17.10095407863822</v>
       </c>
       <c r="R4">
-        <v>1966.924173492971</v>
+        <v>153.908586707744</v>
       </c>
       <c r="S4">
-        <v>0.07001172306463173</v>
+        <v>0.006811105291258368</v>
       </c>
       <c r="T4">
-        <v>0.07001172306463171</v>
+        <v>0.006811105291258369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>348.3039621627769</v>
+        <v>445.1768143549371</v>
       </c>
       <c r="R5">
-        <v>3134.735659464993</v>
+        <v>4006.591329194433</v>
       </c>
       <c r="S5">
-        <v>0.1115794130902083</v>
+        <v>0.1773085958745473</v>
       </c>
       <c r="T5">
-        <v>0.1115794130902083</v>
+        <v>0.1773085958745473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
-        <v>515.0260932623694</v>
+        <v>515.0260932623693</v>
       </c>
       <c r="R6">
-        <v>4635.234839361325</v>
+        <v>4635.234839361323</v>
       </c>
       <c r="S6">
-        <v>0.1649889620994368</v>
+        <v>0.2051287274864601</v>
       </c>
       <c r="T6">
-        <v>0.1649889620994368</v>
+        <v>0.2051287274864602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.201142</v>
       </c>
       <c r="I7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
-        <v>287.8064920894117</v>
+        <v>287.8064920894118</v>
       </c>
       <c r="R7">
         <v>2590.258428804706</v>
       </c>
       <c r="S7">
-        <v>0.09219900707267975</v>
+        <v>0.1146298804215491</v>
       </c>
       <c r="T7">
-        <v>0.09219900707267974</v>
+        <v>0.1146298804215491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>34.477322</v>
       </c>
       <c r="I8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N8">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O8">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P8">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q8">
-        <v>331.7184816258525</v>
+        <v>423.9784583439215</v>
       </c>
       <c r="R8">
-        <v>2985.466334632672</v>
+        <v>3815.806125095294</v>
       </c>
       <c r="S8">
-        <v>0.1062662430285246</v>
+        <v>0.1688655444442786</v>
       </c>
       <c r="T8">
-        <v>0.1062662430285245</v>
+        <v>0.1688655444442786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>34.477322</v>
       </c>
       <c r="I9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N9">
         <v>128.041122</v>
       </c>
       <c r="O9">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P9">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q9">
-        <v>490.5016658261427</v>
+        <v>490.5016658261426</v>
       </c>
       <c r="R9">
-        <v>4414.514992435285</v>
+        <v>4414.514992435284</v>
       </c>
       <c r="S9">
-        <v>0.1571325449552967</v>
+        <v>0.1953609416244641</v>
       </c>
       <c r="T9">
-        <v>0.1571325449552967</v>
+        <v>0.1953609416244642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>34.477322</v>
       </c>
       <c r="I10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N10">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O10">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P10">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q10">
         <v>274.1017700893829</v>
@@ -1066,10 +1066,10 @@
         <v>2466.915930804446</v>
       </c>
       <c r="S10">
-        <v>0.08780868998345569</v>
+        <v>0.1091714537103621</v>
       </c>
       <c r="T10">
-        <v>0.08780868998345566</v>
+        <v>0.1091714537103621</v>
       </c>
     </row>
   </sheetData>
